--- a/medicine/Psychotrope/Fukuju/Fukuju.xlsx
+++ b/medicine/Psychotrope/Fukuju/Fukuju.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le fukuju (福寿?) est un thé vert provenant du Japon, appartenant à la catégorie sencha. Cultivé dans la région de Shizuoka au pied du mont Fuji (entre 120 et 450 mètres d'altitude), il est l'un des thés japonais les plus courants et exportés. En magasin en Europe, son prix se situe généralement aux alentours de 5 à 7 € pour 50 grammes, mais certaines de ses récoltes peuvent avoir des prix élevés.
@@ -513,7 +525,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est conseillé de préparer ce thé avec une eau ayant une température comprise entre 70 et 80 °C afin de ne pas brûler les feuilles de thé, et le laisser infuser deux à trois minutes mais pas plus sinon le thé sera amer. On peut réutiliser les mêmes feuilles de thé plusieurs fois pour réaliser l'infusion (généralement trois).
  Portail de la cuisine japonaise   Portail du thé                    </t>
